--- a/data/echoMRI/Kotz07212025.xlsx
+++ b/data/echoMRI/Kotz07212025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216F41F-CC58-C24F-95A6-E236ECB26D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FFF1A-49AF-554D-8A0C-4E0AC11A434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,13 +64,13 @@
     <t>3725</t>
   </si>
   <si>
-    <t>11:09:50 Jul 21, 2025, 27; ems</t>
-  </si>
-  <si>
-    <t>11:11:11 Jul 21, 2025, 32; ems</t>
-  </si>
-  <si>
-    <t>11:12:51 Jul 21, 2025, 27; ems</t>
+    <t>11:09:50 Jul 21, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:11:11 Jul 21, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>11:12:51 Jul 21, 2025; 27; ems</t>
   </si>
 </sst>
 </file>
@@ -412,12 +412,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="33.3984375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
